--- a/examples/ceur-ws/ceur-ws.xlsx
+++ b/examples/ceur-ws/ceur-ws.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,16 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>paper__pdfUrl</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>paper__volume</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>paper__session</t>
         </is>
       </c>
     </row>
@@ -456,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +478,11 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>session__title</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>session__volume</t>
         </is>
       </c>
     </row>

--- a/examples/ceur-ws/ceur-ws.xlsx
+++ b/examples/ceur-ws/ceur-ws.xlsx
@@ -4,12 +4,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paper" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Session" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Paper" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,32 +426,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>paper__id</t>
+          <t>number</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>paper__title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>paper__authors</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>paper__pdfUrl</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>paper__volume</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>paper__session</t>
+          <t>title</t>
         </is>
       </c>
     </row>
@@ -477,12 +457,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>session__title</t>
+          <t>title</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>session__volume</t>
+          <t>volume</t>
         </is>
       </c>
     </row>
@@ -497,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,12 +488,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>volume__number</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>volume__title</t>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pdfUrl</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>session</t>
         </is>
       </c>
     </row>

--- a/examples/ceur-ws/ceur-ws.xlsx
+++ b/examples/ceur-ws/ceur-ws.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,47 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>acronym</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>wikidataid</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>title</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>k10plus</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>urn</t>
         </is>
       </c>
     </row>
@@ -477,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,30 +528,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>wikidataid</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>pdfUrl</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>session</t>
         </is>
